--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt7a-Fzd1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt7a-Fzd1.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5056791854134129</v>
+        <v>0.6435753333333333</v>
       </c>
       <c r="H2">
-        <v>0.5056791854134129</v>
+        <v>1.930726</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.730755545445945</v>
+        <v>0.752908</v>
       </c>
       <c r="N2">
-        <v>0.730755545445945</v>
+        <v>1.505816</v>
       </c>
       <c r="O2">
-        <v>0.04365022167374741</v>
+        <v>0.04239205579776523</v>
       </c>
       <c r="P2">
-        <v>0.04365022167374741</v>
+        <v>0.03064402855818915</v>
       </c>
       <c r="Q2">
-        <v>0.3695278689574397</v>
+        <v>0.4845530170693333</v>
       </c>
       <c r="R2">
-        <v>0.3695278689574397</v>
+        <v>2.907318102416</v>
       </c>
       <c r="S2">
-        <v>0.04365022167374741</v>
+        <v>0.04239205579776523</v>
       </c>
       <c r="T2">
-        <v>0.04365022167374741</v>
+        <v>0.03064402855818915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5056791854134129</v>
+        <v>0.6435753333333333</v>
       </c>
       <c r="H3">
-        <v>0.5056791854134129</v>
+        <v>1.930726</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.4152465057489</v>
+        <v>12.18022033333333</v>
       </c>
       <c r="N3">
-        <v>11.4152465057489</v>
+        <v>36.540661</v>
       </c>
       <c r="O3">
-        <v>0.6818669301131814</v>
+        <v>0.6858003633906682</v>
       </c>
       <c r="P3">
-        <v>0.6818669301131814</v>
+        <v>0.743618781590253</v>
       </c>
       <c r="Q3">
-        <v>5.772452554320412</v>
+        <v>7.838889361098444</v>
       </c>
       <c r="R3">
-        <v>5.772452554320412</v>
+        <v>70.550004249886</v>
       </c>
       <c r="S3">
-        <v>0.6818669301131814</v>
+        <v>0.6858003633906682</v>
       </c>
       <c r="T3">
-        <v>0.6818669301131814</v>
+        <v>0.743618781590253</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5056791854134129</v>
+        <v>0.6435753333333333</v>
       </c>
       <c r="H4">
-        <v>0.5056791854134129</v>
+        <v>1.930726</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.386418495028439</v>
+        <v>0.4715666666666666</v>
       </c>
       <c r="N4">
-        <v>0.386418495028439</v>
+        <v>1.4147</v>
       </c>
       <c r="O4">
-        <v>0.02308193632185706</v>
+        <v>0.02655129238326527</v>
       </c>
       <c r="P4">
-        <v>0.02308193632185706</v>
+        <v>0.02878977723790303</v>
       </c>
       <c r="Q4">
-        <v>0.195403789794658</v>
+        <v>0.3034886746888888</v>
       </c>
       <c r="R4">
-        <v>0.195403789794658</v>
+        <v>2.7313980722</v>
       </c>
       <c r="S4">
-        <v>0.02308193632185706</v>
+        <v>0.02655129238326527</v>
       </c>
       <c r="T4">
-        <v>0.02308193632185706</v>
+        <v>0.02878977723790303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5056791854134129</v>
+        <v>0.6435753333333333</v>
       </c>
       <c r="H5">
-        <v>0.5056791854134129</v>
+        <v>1.930726</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.326020932026005</v>
+        <v>0.3304726666666666</v>
       </c>
       <c r="N5">
-        <v>0.326020932026005</v>
+        <v>0.9914179999999999</v>
       </c>
       <c r="O5">
-        <v>0.01947420863502641</v>
+        <v>0.01860707513397334</v>
       </c>
       <c r="P5">
-        <v>0.01947420863502641</v>
+        <v>0.02017579937064207</v>
       </c>
       <c r="Q5">
-        <v>0.1648619993346319</v>
+        <v>0.2126840566075555</v>
       </c>
       <c r="R5">
-        <v>0.1648619993346319</v>
+        <v>1.914156509468</v>
       </c>
       <c r="S5">
-        <v>0.01947420863502641</v>
+        <v>0.01860707513397334</v>
       </c>
       <c r="T5">
-        <v>0.01947420863502641</v>
+        <v>0.02017579937064207</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5056791854134129</v>
+        <v>0.6435753333333333</v>
       </c>
       <c r="H6">
-        <v>0.5056791854134129</v>
+        <v>1.930726</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.590544002639307</v>
+        <v>0.6355266666666667</v>
       </c>
       <c r="N6">
-        <v>0.590544002639307</v>
+        <v>1.90658</v>
       </c>
       <c r="O6">
-        <v>0.03527496545726126</v>
+        <v>0.03578296672940263</v>
       </c>
       <c r="P6">
-        <v>0.03527496545726126</v>
+        <v>0.03879975506202103</v>
       </c>
       <c r="Q6">
-        <v>0.2986258102054211</v>
+        <v>0.4090092863422222</v>
       </c>
       <c r="R6">
-        <v>0.2986258102054211</v>
+        <v>3.68108357708</v>
       </c>
       <c r="S6">
-        <v>0.03527496545726126</v>
+        <v>0.03578296672940263</v>
       </c>
       <c r="T6">
-        <v>0.03527496545726126</v>
+        <v>0.03879975506202103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5056791854134129</v>
+        <v>0.6435753333333333</v>
       </c>
       <c r="H7">
-        <v>0.5056791854134129</v>
+        <v>1.930726</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.29217910947233</v>
+        <v>3.3898975</v>
       </c>
       <c r="N7">
-        <v>3.29217910947233</v>
+        <v>6.779795</v>
       </c>
       <c r="O7">
-        <v>0.1966517377989265</v>
+        <v>0.1908662465649254</v>
       </c>
       <c r="P7">
-        <v>0.1966517377989265</v>
+        <v>0.1379718581809916</v>
       </c>
       <c r="Q7">
-        <v>1.664786450313023</v>
+        <v>2.181654413528333</v>
       </c>
       <c r="R7">
-        <v>1.664786450313023</v>
+        <v>13.08992648117</v>
       </c>
       <c r="S7">
-        <v>0.1966517377989265</v>
+        <v>0.1908662465649254</v>
       </c>
       <c r="T7">
-        <v>0.1966517377989265</v>
+        <v>0.1379718581809916</v>
       </c>
     </row>
   </sheetData>
